--- a/Pengeluaran/Pengelolaan Keuangan.xlsx
+++ b/Pengeluaran/Pengelolaan Keuangan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desain\Pengeluaran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6614634-4068-4865-8CB2-6629D2FD7144}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CB0402-B03C-42D0-B5A3-CF061AB456FA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6820" tabRatio="585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6240" tabRatio="585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DASHBOARD" sheetId="1" r:id="rId1"/>
@@ -201,7 +201,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -315,8 +315,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,8 +396,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="44">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -941,12 +954,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1108,9 +1277,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1129,6 +1305,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1209,6 +1388,12 @@
     <xf numFmtId="0" fontId="14" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1226,10 +1411,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1254,6 +1435,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1285,7 +1470,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B24A225A-9E37-4FD2-81C6-3F7501354168}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1307,26 +1492,84 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="45720" tIns="41148" rIns="45720" bIns="41148" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-ID" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-ID" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:latin typeface="Arial"/>
                   <a:cs typeface="Arial"/>
                 </a:rPr>
-                <a:t>Button 2</a:t>
+                <a:t>SUBMIT</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>69850</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>146050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1149350</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1027" name="CommandButton1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1027"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
       </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
@@ -1537,8 +1780,8 @@
   </sheetPr>
   <dimension ref="A1:U69"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:F6"/>
+    <sheetView topLeftCell="E64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
@@ -1566,24 +1809,24 @@
       <c r="C1" s="66"/>
       <c r="D1" s="41"/>
       <c r="E1" s="41"/>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1">
       <c r="A2" s="66"/>
@@ -1591,22 +1834,22 @@
       <c r="C2" s="66"/>
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
       <c r="A3" s="66"/>
@@ -1614,22 +1857,22 @@
       <c r="C3" s="66"/>
       <c r="D3" s="41"/>
       <c r="E3" s="41"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="70"/>
-      <c r="S3" s="70"/>
-      <c r="T3" s="70"/>
-      <c r="U3" s="70"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="66"/>
@@ -1637,22 +1880,22 @@
       <c r="C4" s="66"/>
       <c r="D4" s="41"/>
       <c r="E4" s="41"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="70"/>
-      <c r="S4" s="70"/>
-      <c r="T4" s="70"/>
-      <c r="U4" s="70"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="79"/>
+      <c r="U4" s="79"/>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1">
       <c r="A5" s="66"/>
@@ -1681,36 +1924,36 @@
       <c r="A6" s="66"/>
       <c r="B6" s="66"/>
       <c r="C6" s="66"/>
-      <c r="D6" s="71" t="str">
+      <c r="D6" s="80" t="str">
         <f>HYPERLINK("#Sheet2", "Klik di sini untuk pindah ke Sheet2")</f>
         <v>Klik di sini untuk pindah ke Sheet2</v>
       </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="73" t="s">
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="73" t="s">
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="73" t="s">
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="74" t="s">
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="73" t="s">
+      <c r="Q6" s="79"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="T6" s="70"/>
+      <c r="T6" s="79"/>
       <c r="U6" s="43"/>
     </row>
     <row r="7" spans="1:21" ht="15.75" customHeight="1">
@@ -1720,19 +1963,19 @@
       <c r="D7" s="45"/>
       <c r="E7" s="45"/>
       <c r="F7" s="45"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="70"/>
-      <c r="S7" s="70"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="79"/>
+      <c r="P7" s="79"/>
+      <c r="Q7" s="79"/>
+      <c r="R7" s="79"/>
+      <c r="S7" s="79"/>
       <c r="T7" s="46"/>
       <c r="U7" s="46"/>
     </row>
@@ -1745,19 +1988,19 @@
       <c r="D8" s="45"/>
       <c r="E8" s="46"/>
       <c r="F8" s="46"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="70"/>
-      <c r="S8" s="70"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="79"/>
+      <c r="O8" s="79"/>
+      <c r="P8" s="79"/>
+      <c r="Q8" s="79"/>
+      <c r="R8" s="79"/>
+      <c r="S8" s="79"/>
       <c r="T8" s="46"/>
       <c r="U8" s="46"/>
     </row>
@@ -1792,26 +2035,26 @@
       <c r="C10" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="67" t="s">
+      <c r="E10" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
       <c r="H10" s="47"/>
-      <c r="J10" s="76" t="s">
+      <c r="J10" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76"/>
-      <c r="P10" s="76" t="s">
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="86"/>
+      <c r="P10" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="76"/>
-      <c r="T10" s="76"/>
+      <c r="Q10" s="86"/>
+      <c r="R10" s="86"/>
+      <c r="S10" s="86"/>
+      <c r="T10" s="86"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" customHeight="1">
       <c r="A11" s="66"/>
@@ -1831,16 +2074,16 @@
       <c r="H11" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="76"/>
-      <c r="P11" s="76"/>
-      <c r="Q11" s="76"/>
-      <c r="R11" s="76"/>
-      <c r="S11" s="76"/>
-      <c r="T11" s="76"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="86"/>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="86"/>
+      <c r="R11" s="86"/>
+      <c r="S11" s="86"/>
+      <c r="T11" s="86"/>
     </row>
     <row r="12" spans="1:21" ht="15.75" customHeight="1">
       <c r="A12" s="66"/>
@@ -1861,20 +2104,20 @@
         <f>G12/2</f>
         <v>450000</v>
       </c>
-      <c r="J12" s="77">
+      <c r="J12" s="87">
         <v>6000000</v>
       </c>
-      <c r="K12" s="78"/>
-      <c r="L12" s="78"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="79"/>
-      <c r="P12" s="77">
+      <c r="K12" s="88"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="89"/>
+      <c r="P12" s="87">
         <v>6000000</v>
       </c>
-      <c r="Q12" s="78"/>
-      <c r="R12" s="78"/>
-      <c r="S12" s="78"/>
-      <c r="T12" s="79"/>
+      <c r="Q12" s="88"/>
+      <c r="R12" s="88"/>
+      <c r="S12" s="88"/>
+      <c r="T12" s="89"/>
     </row>
     <row r="13" spans="1:21" ht="15.75" customHeight="1">
       <c r="A13" s="66"/>
@@ -1895,16 +2138,16 @@
         <f t="shared" ref="H13:H18" si="0">G13/2</f>
         <v>400000</v>
       </c>
-      <c r="J13" s="80"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="82"/>
-      <c r="P13" s="80"/>
-      <c r="Q13" s="81"/>
-      <c r="R13" s="81"/>
-      <c r="S13" s="81"/>
-      <c r="T13" s="82"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="92"/>
+      <c r="P13" s="90"/>
+      <c r="Q13" s="91"/>
+      <c r="R13" s="91"/>
+      <c r="S13" s="91"/>
+      <c r="T13" s="92"/>
     </row>
     <row r="14" spans="1:21" ht="15.75" customHeight="1">
       <c r="A14" s="66"/>
@@ -1923,16 +2166,16 @@
         <f t="shared" si="0"/>
         <v>450000</v>
       </c>
-      <c r="J14" s="80"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="82"/>
-      <c r="P14" s="80"/>
-      <c r="Q14" s="81"/>
-      <c r="R14" s="81"/>
-      <c r="S14" s="81"/>
-      <c r="T14" s="82"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="92"/>
+      <c r="P14" s="90"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="91"/>
+      <c r="S14" s="91"/>
+      <c r="T14" s="92"/>
     </row>
     <row r="15" spans="1:21" ht="15.75" customHeight="1">
       <c r="A15" s="66"/>
@@ -1951,16 +2194,16 @@
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="J15" s="80"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="82"/>
-      <c r="P15" s="80"/>
-      <c r="Q15" s="81"/>
-      <c r="R15" s="81"/>
-      <c r="S15" s="81"/>
-      <c r="T15" s="82"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="92"/>
+      <c r="P15" s="90"/>
+      <c r="Q15" s="91"/>
+      <c r="R15" s="91"/>
+      <c r="S15" s="91"/>
+      <c r="T15" s="92"/>
     </row>
     <row r="16" spans="1:21" ht="15.75" customHeight="1">
       <c r="A16" s="66"/>
@@ -1979,16 +2222,16 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="J16" s="80"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="82"/>
-      <c r="P16" s="80"/>
-      <c r="Q16" s="81"/>
-      <c r="R16" s="81"/>
-      <c r="S16" s="81"/>
-      <c r="T16" s="82"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="92"/>
+      <c r="P16" s="90"/>
+      <c r="Q16" s="91"/>
+      <c r="R16" s="91"/>
+      <c r="S16" s="91"/>
+      <c r="T16" s="92"/>
     </row>
     <row r="17" spans="1:20" ht="15.75" customHeight="1">
       <c r="A17" s="66"/>
@@ -2007,16 +2250,16 @@
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-      <c r="J17" s="80"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="82"/>
-      <c r="P17" s="80"/>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="81"/>
-      <c r="S17" s="81"/>
-      <c r="T17" s="82"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="91"/>
+      <c r="N17" s="92"/>
+      <c r="P17" s="90"/>
+      <c r="Q17" s="91"/>
+      <c r="R17" s="91"/>
+      <c r="S17" s="91"/>
+      <c r="T17" s="92"/>
     </row>
     <row r="18" spans="1:20" ht="15.75" customHeight="1">
       <c r="A18" s="66"/>
@@ -2035,16 +2278,16 @@
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-      <c r="J18" s="80"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="82"/>
-      <c r="P18" s="80"/>
-      <c r="Q18" s="81"/>
-      <c r="R18" s="81"/>
-      <c r="S18" s="81"/>
-      <c r="T18" s="82"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="91"/>
+      <c r="N18" s="92"/>
+      <c r="P18" s="90"/>
+      <c r="Q18" s="91"/>
+      <c r="R18" s="91"/>
+      <c r="S18" s="91"/>
+      <c r="T18" s="92"/>
     </row>
     <row r="19" spans="1:20" ht="15.75" customHeight="1">
       <c r="A19" s="66"/>
@@ -2062,16 +2305,16 @@
         <f>SUM(H12:H18)</f>
         <v>2100000</v>
       </c>
-      <c r="J19" s="83"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="85"/>
-      <c r="P19" s="83"/>
-      <c r="Q19" s="84"/>
-      <c r="R19" s="84"/>
-      <c r="S19" s="84"/>
-      <c r="T19" s="85"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="95"/>
+      <c r="P19" s="93"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="94"/>
+      <c r="S19" s="94"/>
+      <c r="T19" s="95"/>
     </row>
     <row r="20" spans="1:20" ht="15.75" customHeight="1">
       <c r="A20" s="66"/>
@@ -2082,26 +2325,26 @@
       <c r="A21" s="66"/>
       <c r="B21" s="66"/>
       <c r="C21" s="66"/>
-      <c r="E21" s="92" t="s">
+      <c r="E21" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="J21" s="76" t="s">
+      <c r="F21" s="102"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="102"/>
+      <c r="J21" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="76"/>
-      <c r="L21" s="76"/>
-      <c r="M21" s="76"/>
-      <c r="N21" s="76"/>
-      <c r="P21" s="86" t="s">
+      <c r="K21" s="86"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="86"/>
+      <c r="N21" s="86"/>
+      <c r="P21" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="Q21" s="87"/>
-      <c r="R21" s="87"/>
-      <c r="S21" s="87"/>
-      <c r="T21" s="88"/>
+      <c r="Q21" s="97"/>
+      <c r="R21" s="97"/>
+      <c r="S21" s="97"/>
+      <c r="T21" s="98"/>
     </row>
     <row r="22" spans="1:20" ht="15.75" customHeight="1">
       <c r="A22" s="66"/>
@@ -2119,16 +2362,16 @@
       <c r="H22" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="76"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="76"/>
-      <c r="N22" s="76"/>
-      <c r="P22" s="89"/>
-      <c r="Q22" s="90"/>
-      <c r="R22" s="90"/>
-      <c r="S22" s="90"/>
-      <c r="T22" s="91"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="86"/>
+      <c r="P22" s="99"/>
+      <c r="Q22" s="100"/>
+      <c r="R22" s="100"/>
+      <c r="S22" s="100"/>
+      <c r="T22" s="101"/>
     </row>
     <row r="23" spans="1:20" ht="15.75" customHeight="1">
       <c r="A23" s="66"/>
@@ -2146,20 +2389,20 @@
       <c r="H23" s="49">
         <v>2500000</v>
       </c>
-      <c r="J23" s="77">
+      <c r="J23" s="87">
         <v>6000000</v>
       </c>
-      <c r="K23" s="78"/>
-      <c r="L23" s="78"/>
-      <c r="M23" s="78"/>
-      <c r="N23" s="79"/>
-      <c r="P23" s="77">
+      <c r="K23" s="88"/>
+      <c r="L23" s="88"/>
+      <c r="M23" s="88"/>
+      <c r="N23" s="89"/>
+      <c r="P23" s="87">
         <v>6000000</v>
       </c>
-      <c r="Q23" s="78"/>
-      <c r="R23" s="78"/>
-      <c r="S23" s="78"/>
-      <c r="T23" s="79"/>
+      <c r="Q23" s="88"/>
+      <c r="R23" s="88"/>
+      <c r="S23" s="88"/>
+      <c r="T23" s="89"/>
     </row>
     <row r="24" spans="1:20" ht="15.75" customHeight="1">
       <c r="A24" s="66"/>
@@ -2177,16 +2420,16 @@
       <c r="H24" s="49">
         <v>500000</v>
       </c>
-      <c r="J24" s="80"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="81"/>
-      <c r="M24" s="81"/>
-      <c r="N24" s="82"/>
-      <c r="P24" s="80"/>
-      <c r="Q24" s="81"/>
-      <c r="R24" s="81"/>
-      <c r="S24" s="81"/>
-      <c r="T24" s="82"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="91"/>
+      <c r="L24" s="91"/>
+      <c r="M24" s="91"/>
+      <c r="N24" s="92"/>
+      <c r="P24" s="90"/>
+      <c r="Q24" s="91"/>
+      <c r="R24" s="91"/>
+      <c r="S24" s="91"/>
+      <c r="T24" s="92"/>
     </row>
     <row r="25" spans="1:20" ht="15.75" customHeight="1">
       <c r="A25" s="66"/>
@@ -2196,16 +2439,16 @@
       <c r="F25" s="54"/>
       <c r="G25" s="48"/>
       <c r="H25" s="49"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="81"/>
-      <c r="L25" s="81"/>
-      <c r="M25" s="81"/>
-      <c r="N25" s="82"/>
-      <c r="P25" s="80"/>
-      <c r="Q25" s="81"/>
-      <c r="R25" s="81"/>
-      <c r="S25" s="81"/>
-      <c r="T25" s="82"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="91"/>
+      <c r="L25" s="91"/>
+      <c r="M25" s="91"/>
+      <c r="N25" s="92"/>
+      <c r="P25" s="90"/>
+      <c r="Q25" s="91"/>
+      <c r="R25" s="91"/>
+      <c r="S25" s="91"/>
+      <c r="T25" s="92"/>
     </row>
     <row r="26" spans="1:20" ht="15.75" customHeight="1">
       <c r="A26" s="66"/>
@@ -2215,16 +2458,16 @@
       <c r="F26" s="55"/>
       <c r="G26" s="56"/>
       <c r="H26" s="56"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="81"/>
-      <c r="M26" s="81"/>
-      <c r="N26" s="82"/>
-      <c r="P26" s="80"/>
-      <c r="Q26" s="81"/>
-      <c r="R26" s="81"/>
-      <c r="S26" s="81"/>
-      <c r="T26" s="82"/>
+      <c r="J26" s="90"/>
+      <c r="K26" s="91"/>
+      <c r="L26" s="91"/>
+      <c r="M26" s="91"/>
+      <c r="N26" s="92"/>
+      <c r="P26" s="90"/>
+      <c r="Q26" s="91"/>
+      <c r="R26" s="91"/>
+      <c r="S26" s="91"/>
+      <c r="T26" s="92"/>
     </row>
     <row r="27" spans="1:20" ht="15.75" customHeight="1">
       <c r="A27" s="66"/>
@@ -2234,16 +2477,16 @@
       <c r="F27" s="55"/>
       <c r="G27" s="56"/>
       <c r="H27" s="56"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="81"/>
-      <c r="L27" s="81"/>
-      <c r="M27" s="81"/>
-      <c r="N27" s="82"/>
-      <c r="P27" s="80"/>
-      <c r="Q27" s="81"/>
-      <c r="R27" s="81"/>
-      <c r="S27" s="81"/>
-      <c r="T27" s="82"/>
+      <c r="J27" s="90"/>
+      <c r="K27" s="91"/>
+      <c r="L27" s="91"/>
+      <c r="M27" s="91"/>
+      <c r="N27" s="92"/>
+      <c r="P27" s="90"/>
+      <c r="Q27" s="91"/>
+      <c r="R27" s="91"/>
+      <c r="S27" s="91"/>
+      <c r="T27" s="92"/>
     </row>
     <row r="28" spans="1:20" ht="15.75" customHeight="1">
       <c r="A28" s="66"/>
@@ -2253,16 +2496,16 @@
       <c r="F28" s="55"/>
       <c r="G28" s="56"/>
       <c r="H28" s="56"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="82"/>
-      <c r="P28" s="80"/>
-      <c r="Q28" s="81"/>
-      <c r="R28" s="81"/>
-      <c r="S28" s="81"/>
-      <c r="T28" s="82"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="91"/>
+      <c r="L28" s="91"/>
+      <c r="M28" s="91"/>
+      <c r="N28" s="92"/>
+      <c r="P28" s="90"/>
+      <c r="Q28" s="91"/>
+      <c r="R28" s="91"/>
+      <c r="S28" s="91"/>
+      <c r="T28" s="92"/>
     </row>
     <row r="29" spans="1:20" ht="15.75" customHeight="1">
       <c r="A29" s="66"/>
@@ -2277,31 +2520,31 @@
         <f>SUM(H23:H25)</f>
         <v>3000000</v>
       </c>
-      <c r="J29" s="80"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="81"/>
-      <c r="N29" s="82"/>
-      <c r="P29" s="80"/>
-      <c r="Q29" s="81"/>
-      <c r="R29" s="81"/>
-      <c r="S29" s="81"/>
-      <c r="T29" s="82"/>
+      <c r="J29" s="90"/>
+      <c r="K29" s="91"/>
+      <c r="L29" s="91"/>
+      <c r="M29" s="91"/>
+      <c r="N29" s="92"/>
+      <c r="P29" s="90"/>
+      <c r="Q29" s="91"/>
+      <c r="R29" s="91"/>
+      <c r="S29" s="91"/>
+      <c r="T29" s="92"/>
     </row>
     <row r="30" spans="1:20" ht="15.75" customHeight="1">
       <c r="A30" s="66"/>
       <c r="B30" s="66"/>
       <c r="C30" s="66"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="84"/>
-      <c r="M30" s="84"/>
-      <c r="N30" s="85"/>
-      <c r="P30" s="83"/>
-      <c r="Q30" s="84"/>
-      <c r="R30" s="84"/>
-      <c r="S30" s="84"/>
-      <c r="T30" s="85"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="94"/>
+      <c r="L30" s="94"/>
+      <c r="M30" s="94"/>
+      <c r="N30" s="95"/>
+      <c r="P30" s="93"/>
+      <c r="Q30" s="94"/>
+      <c r="R30" s="94"/>
+      <c r="S30" s="94"/>
+      <c r="T30" s="95"/>
     </row>
     <row r="31" spans="1:20" ht="15.75" customHeight="1">
       <c r="A31" s="66"/>
@@ -2312,11 +2555,11 @@
       <c r="A32" s="66"/>
       <c r="B32" s="66"/>
       <c r="C32" s="66"/>
-      <c r="E32" s="67" t="s">
+      <c r="E32" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1">
       <c r="A33" s="66"/>
@@ -2506,17 +2749,17 @@
       <c r="H49" s="59"/>
     </row>
     <row r="61" spans="5:14" ht="15.75" customHeight="1">
-      <c r="F61" s="68" t="s">
+      <c r="F61" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="G61" s="68"/>
-      <c r="H61" s="68"/>
-      <c r="I61" s="68"/>
-      <c r="J61" s="68"/>
-      <c r="K61" s="68"/>
-      <c r="L61" s="68"/>
-      <c r="M61" s="68"/>
-      <c r="N61" s="68"/>
+      <c r="G61" s="77"/>
+      <c r="H61" s="77"/>
+      <c r="I61" s="77"/>
+      <c r="J61" s="77"/>
+      <c r="K61" s="77"/>
+      <c r="L61" s="77"/>
+      <c r="M61" s="77"/>
+      <c r="N61" s="77"/>
     </row>
     <row r="62" spans="5:14" ht="15.75" customHeight="1">
       <c r="E62" s="48" t="s">
@@ -2654,7 +2897,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P12:T19"/>
     <mergeCell ref="J21:N22"/>
     <mergeCell ref="J23:N30"/>
     <mergeCell ref="E21:H21"/>
@@ -2674,6 +2916,7 @@
     <mergeCell ref="P23:T30"/>
     <mergeCell ref="P21:T22"/>
     <mergeCell ref="P10:T11"/>
+    <mergeCell ref="P12:T19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D6" location="'Dashboard Utama'!A1" display="📥Dashboard Utama" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -2711,45 +2954,45 @@
     <row r="3" spans="2:34" ht="16" thickBot="1">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="93" t="s">
+      <c r="D3" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="96" t="s">
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="97" t="s">
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="105"/>
+      <c r="R3" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
-      <c r="W3" s="94"/>
-      <c r="X3" s="95"/>
-      <c r="Y3" s="98" t="s">
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
+      <c r="U3" s="104"/>
+      <c r="V3" s="104"/>
+      <c r="W3" s="104"/>
+      <c r="X3" s="105"/>
+      <c r="Y3" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="94"/>
-      <c r="AD3" s="94"/>
-      <c r="AE3" s="95"/>
-      <c r="AF3" s="99"/>
-      <c r="AG3" s="94"/>
-      <c r="AH3" s="100"/>
+      <c r="Z3" s="104"/>
+      <c r="AA3" s="104"/>
+      <c r="AB3" s="104"/>
+      <c r="AC3" s="104"/>
+      <c r="AD3" s="104"/>
+      <c r="AE3" s="105"/>
+      <c r="AF3" s="109"/>
+      <c r="AG3" s="104"/>
+      <c r="AH3" s="110"/>
     </row>
     <row r="4" spans="2:34">
       <c r="B4" s="4" t="s">
@@ -3142,7 +3385,7 @@
   <dimension ref="B1:U34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -3160,7 +3403,7 @@
     <row r="2" spans="2:21">
       <c r="I2"/>
     </row>
-    <row r="3" spans="2:21" ht="13">
+    <row r="3" spans="2:21" ht="13.5" thickBot="1">
       <c r="G3" s="63" t="s">
         <v>29</v>
       </c>
@@ -3170,567 +3413,583 @@
       <c r="I3" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="104" t="s">
+      <c r="J3" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
-      <c r="U3" s="106"/>
-    </row>
-    <row r="4" spans="2:21" ht="12.75" customHeight="1">
-      <c r="B4" s="111" t="s">
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="117"/>
+      <c r="Q3" s="117"/>
+      <c r="R3" s="117"/>
+      <c r="S3" s="117"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="118"/>
+    </row>
+    <row r="4" spans="2:21" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B4" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="111"/>
+      <c r="C4" s="115"/>
       <c r="G4" s="61"/>
       <c r="H4" s="64"/>
       <c r="I4" s="65"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="108"/>
-      <c r="L4" s="108"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="108"/>
-      <c r="P4" s="108"/>
-      <c r="Q4" s="108"/>
-      <c r="R4" s="108"/>
-      <c r="S4" s="108"/>
-      <c r="T4" s="108"/>
-      <c r="U4" s="109"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="120"/>
+      <c r="N4" s="120"/>
+      <c r="O4" s="120"/>
+      <c r="P4" s="120"/>
+      <c r="Q4" s="120"/>
+      <c r="R4" s="120"/>
+      <c r="S4" s="120"/>
+      <c r="T4" s="120"/>
+      <c r="U4" s="121"/>
     </row>
     <row r="5" spans="2:21" ht="12.75" customHeight="1">
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="110"/>
+      <c r="C5" s="72">
+        <v>23</v>
+      </c>
       <c r="G5" s="61"/>
       <c r="H5" s="64"/>
       <c r="I5" s="65"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="108"/>
-      <c r="U5" s="109"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120"/>
+      <c r="N5" s="120"/>
+      <c r="O5" s="120"/>
+      <c r="P5" s="120"/>
+      <c r="Q5" s="120"/>
+      <c r="R5" s="120"/>
+      <c r="S5" s="120"/>
+      <c r="T5" s="120"/>
+      <c r="U5" s="121"/>
     </row>
     <row r="6" spans="2:21" ht="12.75" customHeight="1">
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="110"/>
+      <c r="C6" s="68">
+        <v>123</v>
+      </c>
       <c r="G6" s="61"/>
       <c r="H6" s="64"/>
       <c r="I6" s="65"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="108"/>
-      <c r="S6" s="108"/>
-      <c r="T6" s="108"/>
-      <c r="U6" s="109"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="120"/>
+      <c r="M6" s="120"/>
+      <c r="N6" s="120"/>
+      <c r="O6" s="120"/>
+      <c r="P6" s="120"/>
+      <c r="Q6" s="120"/>
+      <c r="R6" s="120"/>
+      <c r="S6" s="120"/>
+      <c r="T6" s="120"/>
+      <c r="U6" s="121"/>
     </row>
     <row r="7" spans="2:21" ht="12.75" customHeight="1">
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="110"/>
+      <c r="C7" s="68">
+        <v>123</v>
+      </c>
       <c r="G7" s="61"/>
       <c r="H7" s="64"/>
       <c r="I7" s="65"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="108"/>
-      <c r="S7" s="108"/>
-      <c r="T7" s="108"/>
-      <c r="U7" s="109"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="120"/>
+      <c r="N7" s="120"/>
+      <c r="O7" s="120"/>
+      <c r="P7" s="120"/>
+      <c r="Q7" s="120"/>
+      <c r="R7" s="120"/>
+      <c r="S7" s="120"/>
+      <c r="T7" s="120"/>
+      <c r="U7" s="121"/>
     </row>
     <row r="8" spans="2:21" ht="12.75" customHeight="1">
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="110"/>
+      <c r="C8" s="70"/>
       <c r="G8" s="61"/>
       <c r="H8" s="64"/>
       <c r="I8" s="65"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="108"/>
-      <c r="O8" s="108"/>
-      <c r="P8" s="108"/>
-      <c r="Q8" s="108"/>
-      <c r="R8" s="108"/>
-      <c r="S8" s="108"/>
-      <c r="T8" s="108"/>
-      <c r="U8" s="109"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="120"/>
+      <c r="P8" s="120"/>
+      <c r="Q8" s="120"/>
+      <c r="R8" s="120"/>
+      <c r="S8" s="120"/>
+      <c r="T8" s="120"/>
+      <c r="U8" s="121"/>
     </row>
     <row r="9" spans="2:21" ht="12.75" customHeight="1">
+      <c r="B9" s="73"/>
+      <c r="C9" s="74"/>
       <c r="G9" s="61"/>
       <c r="H9" s="64"/>
       <c r="I9" s="65"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="108"/>
-      <c r="L9" s="108"/>
-      <c r="M9" s="108"/>
-      <c r="N9" s="108"/>
-      <c r="O9" s="108"/>
-      <c r="P9" s="108"/>
-      <c r="Q9" s="108"/>
-      <c r="R9" s="108"/>
-      <c r="S9" s="108"/>
-      <c r="T9" s="108"/>
-      <c r="U9" s="109"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="120"/>
+      <c r="O9" s="120"/>
+      <c r="P9" s="120"/>
+      <c r="Q9" s="120"/>
+      <c r="R9" s="120"/>
+      <c r="S9" s="120"/>
+      <c r="T9" s="120"/>
+      <c r="U9" s="121"/>
     </row>
     <row r="10" spans="2:21" ht="12.75" customHeight="1">
+      <c r="B10" s="73"/>
+      <c r="C10" s="74"/>
       <c r="G10" s="61"/>
       <c r="H10" s="64"/>
       <c r="I10" s="65"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="108"/>
-      <c r="L10" s="108"/>
-      <c r="M10" s="108"/>
-      <c r="N10" s="108"/>
-      <c r="O10" s="108"/>
-      <c r="P10" s="108"/>
-      <c r="Q10" s="108"/>
-      <c r="R10" s="108"/>
-      <c r="S10" s="108"/>
-      <c r="T10" s="108"/>
-      <c r="U10" s="109"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="120"/>
+      <c r="M10" s="120"/>
+      <c r="N10" s="120"/>
+      <c r="O10" s="120"/>
+      <c r="P10" s="120"/>
+      <c r="Q10" s="120"/>
+      <c r="R10" s="120"/>
+      <c r="S10" s="120"/>
+      <c r="T10" s="120"/>
+      <c r="U10" s="121"/>
     </row>
     <row r="11" spans="2:21" ht="12.75" customHeight="1">
+      <c r="B11" s="73"/>
+      <c r="C11" s="74"/>
       <c r="G11" s="61"/>
       <c r="H11" s="64"/>
       <c r="I11" s="65"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="108"/>
-      <c r="L11" s="108"/>
-      <c r="M11" s="108"/>
-      <c r="N11" s="108"/>
-      <c r="O11" s="108"/>
-      <c r="P11" s="108"/>
-      <c r="Q11" s="108"/>
-      <c r="R11" s="108"/>
-      <c r="S11" s="108"/>
-      <c r="T11" s="108"/>
-      <c r="U11" s="109"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="120"/>
+      <c r="L11" s="120"/>
+      <c r="M11" s="120"/>
+      <c r="N11" s="120"/>
+      <c r="O11" s="120"/>
+      <c r="P11" s="120"/>
+      <c r="Q11" s="120"/>
+      <c r="R11" s="120"/>
+      <c r="S11" s="120"/>
+      <c r="T11" s="120"/>
+      <c r="U11" s="121"/>
     </row>
     <row r="12" spans="2:21" ht="12.75" customHeight="1">
+      <c r="B12" s="73"/>
+      <c r="C12" s="74"/>
       <c r="G12" s="61"/>
       <c r="H12" s="64"/>
       <c r="I12" s="65"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="108"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="108"/>
-      <c r="N12" s="108"/>
-      <c r="O12" s="108"/>
-      <c r="P12" s="108"/>
-      <c r="Q12" s="108"/>
-      <c r="R12" s="108"/>
-      <c r="S12" s="108"/>
-      <c r="T12" s="108"/>
-      <c r="U12" s="109"/>
-    </row>
-    <row r="13" spans="2:21" ht="12.75" customHeight="1">
+      <c r="J12" s="119"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="120"/>
+      <c r="M12" s="120"/>
+      <c r="N12" s="120"/>
+      <c r="O12" s="120"/>
+      <c r="P12" s="120"/>
+      <c r="Q12" s="120"/>
+      <c r="R12" s="120"/>
+      <c r="S12" s="120"/>
+      <c r="T12" s="120"/>
+      <c r="U12" s="121"/>
+    </row>
+    <row r="13" spans="2:21" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B13" s="75"/>
+      <c r="C13" s="76"/>
       <c r="G13" s="61"/>
       <c r="H13" s="62"/>
       <c r="I13" s="65"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="108"/>
-      <c r="M13" s="108"/>
-      <c r="N13" s="108"/>
-      <c r="O13" s="108"/>
-      <c r="P13" s="108"/>
-      <c r="Q13" s="108"/>
-      <c r="R13" s="108"/>
-      <c r="S13" s="108"/>
-      <c r="T13" s="108"/>
-      <c r="U13" s="109"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="120"/>
+      <c r="M13" s="120"/>
+      <c r="N13" s="120"/>
+      <c r="O13" s="120"/>
+      <c r="P13" s="120"/>
+      <c r="Q13" s="120"/>
+      <c r="R13" s="120"/>
+      <c r="S13" s="120"/>
+      <c r="T13" s="120"/>
+      <c r="U13" s="121"/>
     </row>
     <row r="14" spans="2:21" ht="13">
       <c r="G14" s="64"/>
       <c r="H14" s="62"/>
       <c r="I14" s="65"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="102"/>
-      <c r="L14" s="102"/>
-      <c r="M14" s="102"/>
-      <c r="N14" s="102"/>
-      <c r="O14" s="102"/>
-      <c r="P14" s="102"/>
-      <c r="Q14" s="102"/>
-      <c r="R14" s="102"/>
-      <c r="S14" s="102"/>
-      <c r="T14" s="102"/>
-      <c r="U14" s="103"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="112"/>
+      <c r="L14" s="112"/>
+      <c r="M14" s="112"/>
+      <c r="N14" s="112"/>
+      <c r="O14" s="112"/>
+      <c r="P14" s="112"/>
+      <c r="Q14" s="112"/>
+      <c r="R14" s="112"/>
+      <c r="S14" s="112"/>
+      <c r="T14" s="112"/>
+      <c r="U14" s="113"/>
     </row>
     <row r="15" spans="2:21" ht="13">
       <c r="G15" s="62"/>
       <c r="H15" s="62"/>
       <c r="I15" s="65"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="102"/>
-      <c r="M15" s="102"/>
-      <c r="N15" s="102"/>
-      <c r="O15" s="102"/>
-      <c r="P15" s="102"/>
-      <c r="Q15" s="102"/>
-      <c r="R15" s="102"/>
-      <c r="S15" s="102"/>
-      <c r="T15" s="102"/>
-      <c r="U15" s="103"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="112"/>
+      <c r="L15" s="112"/>
+      <c r="M15" s="112"/>
+      <c r="N15" s="112"/>
+      <c r="O15" s="112"/>
+      <c r="P15" s="112"/>
+      <c r="Q15" s="112"/>
+      <c r="R15" s="112"/>
+      <c r="S15" s="112"/>
+      <c r="T15" s="112"/>
+      <c r="U15" s="113"/>
     </row>
     <row r="16" spans="2:21" ht="13">
       <c r="G16" s="62"/>
       <c r="H16" s="62"/>
       <c r="I16" s="65"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="102"/>
-      <c r="M16" s="102"/>
-      <c r="N16" s="102"/>
-      <c r="O16" s="102"/>
-      <c r="P16" s="102"/>
-      <c r="Q16" s="102"/>
-      <c r="R16" s="102"/>
-      <c r="S16" s="102"/>
-      <c r="T16" s="102"/>
-      <c r="U16" s="103"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="112"/>
+      <c r="L16" s="112"/>
+      <c r="M16" s="112"/>
+      <c r="N16" s="112"/>
+      <c r="O16" s="112"/>
+      <c r="P16" s="112"/>
+      <c r="Q16" s="112"/>
+      <c r="R16" s="112"/>
+      <c r="S16" s="112"/>
+      <c r="T16" s="112"/>
+      <c r="U16" s="113"/>
     </row>
     <row r="17" spans="7:21" ht="13">
       <c r="G17" s="62"/>
       <c r="H17" s="62"/>
       <c r="I17" s="65"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="102"/>
-      <c r="N17" s="102"/>
-      <c r="O17" s="102"/>
-      <c r="P17" s="102"/>
-      <c r="Q17" s="102"/>
-      <c r="R17" s="102"/>
-      <c r="S17" s="102"/>
-      <c r="T17" s="102"/>
-      <c r="U17" s="103"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="112"/>
+      <c r="L17" s="112"/>
+      <c r="M17" s="112"/>
+      <c r="N17" s="112"/>
+      <c r="O17" s="112"/>
+      <c r="P17" s="112"/>
+      <c r="Q17" s="112"/>
+      <c r="R17" s="112"/>
+      <c r="S17" s="112"/>
+      <c r="T17" s="112"/>
+      <c r="U17" s="113"/>
     </row>
     <row r="18" spans="7:21" ht="13">
       <c r="G18" s="62"/>
       <c r="H18" s="62"/>
       <c r="I18" s="65"/>
-      <c r="J18" s="101"/>
-      <c r="K18" s="102"/>
-      <c r="L18" s="102"/>
-      <c r="M18" s="102"/>
-      <c r="N18" s="102"/>
-      <c r="O18" s="102"/>
-      <c r="P18" s="102"/>
-      <c r="Q18" s="102"/>
-      <c r="R18" s="102"/>
-      <c r="S18" s="102"/>
-      <c r="T18" s="102"/>
-      <c r="U18" s="103"/>
+      <c r="J18" s="111"/>
+      <c r="K18" s="112"/>
+      <c r="L18" s="112"/>
+      <c r="M18" s="112"/>
+      <c r="N18" s="112"/>
+      <c r="O18" s="112"/>
+      <c r="P18" s="112"/>
+      <c r="Q18" s="112"/>
+      <c r="R18" s="112"/>
+      <c r="S18" s="112"/>
+      <c r="T18" s="112"/>
+      <c r="U18" s="113"/>
     </row>
     <row r="19" spans="7:21" ht="13">
       <c r="G19" s="62"/>
       <c r="H19" s="62"/>
       <c r="I19" s="65"/>
-      <c r="J19" s="101"/>
-      <c r="K19" s="102"/>
-      <c r="L19" s="102"/>
-      <c r="M19" s="102"/>
-      <c r="N19" s="102"/>
-      <c r="O19" s="102"/>
-      <c r="P19" s="102"/>
-      <c r="Q19" s="102"/>
-      <c r="R19" s="102"/>
-      <c r="S19" s="102"/>
-      <c r="T19" s="102"/>
-      <c r="U19" s="103"/>
+      <c r="J19" s="111"/>
+      <c r="K19" s="112"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="112"/>
+      <c r="N19" s="112"/>
+      <c r="O19" s="112"/>
+      <c r="P19" s="112"/>
+      <c r="Q19" s="112"/>
+      <c r="R19" s="112"/>
+      <c r="S19" s="112"/>
+      <c r="T19" s="112"/>
+      <c r="U19" s="113"/>
     </row>
     <row r="20" spans="7:21" ht="13">
       <c r="G20" s="62"/>
       <c r="H20" s="62"/>
       <c r="I20" s="65"/>
-      <c r="J20" s="101"/>
-      <c r="K20" s="102"/>
-      <c r="L20" s="102"/>
-      <c r="M20" s="102"/>
-      <c r="N20" s="102"/>
-      <c r="O20" s="102"/>
-      <c r="P20" s="102"/>
-      <c r="Q20" s="102"/>
-      <c r="R20" s="102"/>
-      <c r="S20" s="102"/>
-      <c r="T20" s="102"/>
-      <c r="U20" s="103"/>
+      <c r="J20" s="111"/>
+      <c r="K20" s="112"/>
+      <c r="L20" s="112"/>
+      <c r="M20" s="112"/>
+      <c r="N20" s="112"/>
+      <c r="O20" s="112"/>
+      <c r="P20" s="112"/>
+      <c r="Q20" s="112"/>
+      <c r="R20" s="112"/>
+      <c r="S20" s="112"/>
+      <c r="T20" s="112"/>
+      <c r="U20" s="113"/>
     </row>
     <row r="21" spans="7:21" ht="13">
       <c r="G21" s="62"/>
       <c r="H21" s="62"/>
       <c r="I21" s="65"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="102"/>
-      <c r="L21" s="102"/>
-      <c r="M21" s="102"/>
-      <c r="N21" s="102"/>
-      <c r="O21" s="102"/>
-      <c r="P21" s="102"/>
-      <c r="Q21" s="102"/>
-      <c r="R21" s="102"/>
-      <c r="S21" s="102"/>
-      <c r="T21" s="102"/>
-      <c r="U21" s="103"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="112"/>
+      <c r="L21" s="112"/>
+      <c r="M21" s="112"/>
+      <c r="N21" s="112"/>
+      <c r="O21" s="112"/>
+      <c r="P21" s="112"/>
+      <c r="Q21" s="112"/>
+      <c r="R21" s="112"/>
+      <c r="S21" s="112"/>
+      <c r="T21" s="112"/>
+      <c r="U21" s="113"/>
     </row>
     <row r="22" spans="7:21" ht="13">
       <c r="G22" s="62"/>
       <c r="H22" s="62"/>
       <c r="I22" s="65"/>
-      <c r="J22" s="101"/>
-      <c r="K22" s="102"/>
-      <c r="L22" s="102"/>
-      <c r="M22" s="102"/>
-      <c r="N22" s="102"/>
-      <c r="O22" s="102"/>
-      <c r="P22" s="102"/>
-      <c r="Q22" s="102"/>
-      <c r="R22" s="102"/>
-      <c r="S22" s="102"/>
-      <c r="T22" s="102"/>
-      <c r="U22" s="103"/>
+      <c r="J22" s="111"/>
+      <c r="K22" s="112"/>
+      <c r="L22" s="112"/>
+      <c r="M22" s="112"/>
+      <c r="N22" s="112"/>
+      <c r="O22" s="112"/>
+      <c r="P22" s="112"/>
+      <c r="Q22" s="112"/>
+      <c r="R22" s="112"/>
+      <c r="S22" s="112"/>
+      <c r="T22" s="112"/>
+      <c r="U22" s="113"/>
     </row>
     <row r="23" spans="7:21" ht="13">
       <c r="G23" s="62"/>
       <c r="H23" s="62"/>
       <c r="I23" s="65"/>
-      <c r="J23" s="101"/>
-      <c r="K23" s="102"/>
-      <c r="L23" s="102"/>
-      <c r="M23" s="102"/>
-      <c r="N23" s="102"/>
-      <c r="O23" s="102"/>
-      <c r="P23" s="102"/>
-      <c r="Q23" s="102"/>
-      <c r="R23" s="102"/>
-      <c r="S23" s="102"/>
-      <c r="T23" s="102"/>
-      <c r="U23" s="103"/>
+      <c r="J23" s="111"/>
+      <c r="K23" s="112"/>
+      <c r="L23" s="112"/>
+      <c r="M23" s="112"/>
+      <c r="N23" s="112"/>
+      <c r="O23" s="112"/>
+      <c r="P23" s="112"/>
+      <c r="Q23" s="112"/>
+      <c r="R23" s="112"/>
+      <c r="S23" s="112"/>
+      <c r="T23" s="112"/>
+      <c r="U23" s="113"/>
     </row>
     <row r="24" spans="7:21" ht="13">
       <c r="G24" s="62"/>
       <c r="H24" s="62"/>
       <c r="I24" s="65"/>
-      <c r="J24" s="101"/>
-      <c r="K24" s="102"/>
-      <c r="L24" s="102"/>
-      <c r="M24" s="102"/>
-      <c r="N24" s="102"/>
-      <c r="O24" s="102"/>
-      <c r="P24" s="102"/>
-      <c r="Q24" s="102"/>
-      <c r="R24" s="102"/>
-      <c r="S24" s="102"/>
-      <c r="T24" s="102"/>
-      <c r="U24" s="103"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="112"/>
+      <c r="L24" s="112"/>
+      <c r="M24" s="112"/>
+      <c r="N24" s="112"/>
+      <c r="O24" s="112"/>
+      <c r="P24" s="112"/>
+      <c r="Q24" s="112"/>
+      <c r="R24" s="112"/>
+      <c r="S24" s="112"/>
+      <c r="T24" s="112"/>
+      <c r="U24" s="113"/>
     </row>
     <row r="25" spans="7:21" ht="13">
       <c r="G25" s="62"/>
       <c r="H25" s="62"/>
       <c r="I25" s="65"/>
-      <c r="J25" s="101"/>
-      <c r="K25" s="102"/>
-      <c r="L25" s="102"/>
-      <c r="M25" s="102"/>
-      <c r="N25" s="102"/>
-      <c r="O25" s="102"/>
-      <c r="P25" s="102"/>
-      <c r="Q25" s="102"/>
-      <c r="R25" s="102"/>
-      <c r="S25" s="102"/>
-      <c r="T25" s="102"/>
-      <c r="U25" s="103"/>
+      <c r="J25" s="111"/>
+      <c r="K25" s="112"/>
+      <c r="L25" s="112"/>
+      <c r="M25" s="112"/>
+      <c r="N25" s="112"/>
+      <c r="O25" s="112"/>
+      <c r="P25" s="112"/>
+      <c r="Q25" s="112"/>
+      <c r="R25" s="112"/>
+      <c r="S25" s="112"/>
+      <c r="T25" s="112"/>
+      <c r="U25" s="113"/>
     </row>
     <row r="26" spans="7:21" ht="13">
       <c r="G26" s="62"/>
       <c r="H26" s="62"/>
       <c r="I26" s="65"/>
-      <c r="J26" s="101"/>
-      <c r="K26" s="102"/>
-      <c r="L26" s="102"/>
-      <c r="M26" s="102"/>
-      <c r="N26" s="102"/>
-      <c r="O26" s="102"/>
-      <c r="P26" s="102"/>
-      <c r="Q26" s="102"/>
-      <c r="R26" s="102"/>
-      <c r="S26" s="102"/>
-      <c r="T26" s="102"/>
-      <c r="U26" s="103"/>
+      <c r="J26" s="111"/>
+      <c r="K26" s="112"/>
+      <c r="L26" s="112"/>
+      <c r="M26" s="112"/>
+      <c r="N26" s="112"/>
+      <c r="O26" s="112"/>
+      <c r="P26" s="112"/>
+      <c r="Q26" s="112"/>
+      <c r="R26" s="112"/>
+      <c r="S26" s="112"/>
+      <c r="T26" s="112"/>
+      <c r="U26" s="113"/>
     </row>
     <row r="27" spans="7:21" ht="13">
       <c r="G27" s="62"/>
       <c r="H27" s="62"/>
       <c r="I27" s="65"/>
-      <c r="J27" s="101"/>
-      <c r="K27" s="102"/>
-      <c r="L27" s="102"/>
-      <c r="M27" s="102"/>
-      <c r="N27" s="102"/>
-      <c r="O27" s="102"/>
-      <c r="P27" s="102"/>
-      <c r="Q27" s="102"/>
-      <c r="R27" s="102"/>
-      <c r="S27" s="102"/>
-      <c r="T27" s="102"/>
-      <c r="U27" s="103"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="112"/>
+      <c r="L27" s="112"/>
+      <c r="M27" s="112"/>
+      <c r="N27" s="112"/>
+      <c r="O27" s="112"/>
+      <c r="P27" s="112"/>
+      <c r="Q27" s="112"/>
+      <c r="R27" s="112"/>
+      <c r="S27" s="112"/>
+      <c r="T27" s="112"/>
+      <c r="U27" s="113"/>
     </row>
     <row r="28" spans="7:21" ht="13">
       <c r="G28" s="62"/>
       <c r="H28" s="62"/>
       <c r="I28" s="65"/>
-      <c r="J28" s="101"/>
-      <c r="K28" s="102"/>
-      <c r="L28" s="102"/>
-      <c r="M28" s="102"/>
-      <c r="N28" s="102"/>
-      <c r="O28" s="102"/>
-      <c r="P28" s="102"/>
-      <c r="Q28" s="102"/>
-      <c r="R28" s="102"/>
-      <c r="S28" s="102"/>
-      <c r="T28" s="102"/>
-      <c r="U28" s="103"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="112"/>
+      <c r="L28" s="112"/>
+      <c r="M28" s="112"/>
+      <c r="N28" s="112"/>
+      <c r="O28" s="112"/>
+      <c r="P28" s="112"/>
+      <c r="Q28" s="112"/>
+      <c r="R28" s="112"/>
+      <c r="S28" s="112"/>
+      <c r="T28" s="112"/>
+      <c r="U28" s="113"/>
     </row>
     <row r="29" spans="7:21" ht="13">
       <c r="G29" s="62"/>
       <c r="H29" s="62"/>
       <c r="I29" s="65"/>
-      <c r="J29" s="101"/>
-      <c r="K29" s="102"/>
-      <c r="L29" s="102"/>
-      <c r="M29" s="102"/>
-      <c r="N29" s="102"/>
-      <c r="O29" s="102"/>
-      <c r="P29" s="102"/>
-      <c r="Q29" s="102"/>
-      <c r="R29" s="102"/>
-      <c r="S29" s="102"/>
-      <c r="T29" s="102"/>
-      <c r="U29" s="103"/>
+      <c r="J29" s="111"/>
+      <c r="K29" s="112"/>
+      <c r="L29" s="112"/>
+      <c r="M29" s="112"/>
+      <c r="N29" s="112"/>
+      <c r="O29" s="112"/>
+      <c r="P29" s="112"/>
+      <c r="Q29" s="112"/>
+      <c r="R29" s="112"/>
+      <c r="S29" s="112"/>
+      <c r="T29" s="112"/>
+      <c r="U29" s="113"/>
     </row>
     <row r="30" spans="7:21" ht="13">
       <c r="G30" s="62"/>
       <c r="H30" s="62"/>
       <c r="I30" s="65"/>
-      <c r="J30" s="101"/>
-      <c r="K30" s="102"/>
-      <c r="L30" s="102"/>
-      <c r="M30" s="102"/>
-      <c r="N30" s="102"/>
-      <c r="O30" s="102"/>
-      <c r="P30" s="102"/>
-      <c r="Q30" s="102"/>
-      <c r="R30" s="102"/>
-      <c r="S30" s="102"/>
-      <c r="T30" s="102"/>
-      <c r="U30" s="103"/>
+      <c r="J30" s="111"/>
+      <c r="K30" s="112"/>
+      <c r="L30" s="112"/>
+      <c r="M30" s="112"/>
+      <c r="N30" s="112"/>
+      <c r="O30" s="112"/>
+      <c r="P30" s="112"/>
+      <c r="Q30" s="112"/>
+      <c r="R30" s="112"/>
+      <c r="S30" s="112"/>
+      <c r="T30" s="112"/>
+      <c r="U30" s="113"/>
     </row>
     <row r="31" spans="7:21" ht="13">
       <c r="G31" s="62"/>
       <c r="H31" s="62"/>
       <c r="I31" s="65"/>
-      <c r="J31" s="101"/>
-      <c r="K31" s="102"/>
-      <c r="L31" s="102"/>
-      <c r="M31" s="102"/>
-      <c r="N31" s="102"/>
-      <c r="O31" s="102"/>
-      <c r="P31" s="102"/>
-      <c r="Q31" s="102"/>
-      <c r="R31" s="102"/>
-      <c r="S31" s="102"/>
-      <c r="T31" s="102"/>
-      <c r="U31" s="103"/>
+      <c r="J31" s="111"/>
+      <c r="K31" s="112"/>
+      <c r="L31" s="112"/>
+      <c r="M31" s="112"/>
+      <c r="N31" s="112"/>
+      <c r="O31" s="112"/>
+      <c r="P31" s="112"/>
+      <c r="Q31" s="112"/>
+      <c r="R31" s="112"/>
+      <c r="S31" s="112"/>
+      <c r="T31" s="112"/>
+      <c r="U31" s="113"/>
     </row>
     <row r="32" spans="7:21" ht="13">
       <c r="G32" s="62"/>
       <c r="H32" s="62"/>
       <c r="I32" s="65"/>
-      <c r="J32" s="101"/>
-      <c r="K32" s="102"/>
-      <c r="L32" s="102"/>
-      <c r="M32" s="102"/>
-      <c r="N32" s="102"/>
-      <c r="O32" s="102"/>
-      <c r="P32" s="102"/>
-      <c r="Q32" s="102"/>
-      <c r="R32" s="102"/>
-      <c r="S32" s="102"/>
-      <c r="T32" s="102"/>
-      <c r="U32" s="103"/>
+      <c r="J32" s="111"/>
+      <c r="K32" s="112"/>
+      <c r="L32" s="112"/>
+      <c r="M32" s="112"/>
+      <c r="N32" s="112"/>
+      <c r="O32" s="112"/>
+      <c r="P32" s="112"/>
+      <c r="Q32" s="112"/>
+      <c r="R32" s="112"/>
+      <c r="S32" s="112"/>
+      <c r="T32" s="112"/>
+      <c r="U32" s="113"/>
     </row>
     <row r="33" spans="7:21" ht="13">
       <c r="G33" s="62"/>
       <c r="H33" s="62"/>
       <c r="I33" s="65"/>
-      <c r="J33" s="101"/>
-      <c r="K33" s="102"/>
-      <c r="L33" s="102"/>
-      <c r="M33" s="102"/>
-      <c r="N33" s="102"/>
-      <c r="O33" s="102"/>
-      <c r="P33" s="102"/>
-      <c r="Q33" s="102"/>
-      <c r="R33" s="102"/>
-      <c r="S33" s="102"/>
-      <c r="T33" s="102"/>
-      <c r="U33" s="103"/>
+      <c r="J33" s="111"/>
+      <c r="K33" s="112"/>
+      <c r="L33" s="112"/>
+      <c r="M33" s="112"/>
+      <c r="N33" s="112"/>
+      <c r="O33" s="112"/>
+      <c r="P33" s="112"/>
+      <c r="Q33" s="112"/>
+      <c r="R33" s="112"/>
+      <c r="S33" s="112"/>
+      <c r="T33" s="112"/>
+      <c r="U33" s="113"/>
     </row>
     <row r="34" spans="7:21" ht="13">
       <c r="G34" s="62"/>
       <c r="H34" s="62"/>
       <c r="I34" s="65"/>
-      <c r="J34" s="101"/>
-      <c r="K34" s="102"/>
-      <c r="L34" s="102"/>
-      <c r="M34" s="102"/>
-      <c r="N34" s="102"/>
-      <c r="O34" s="102"/>
-      <c r="P34" s="102"/>
-      <c r="Q34" s="102"/>
-      <c r="R34" s="102"/>
-      <c r="S34" s="102"/>
-      <c r="T34" s="102"/>
-      <c r="U34" s="103"/>
+      <c r="J34" s="111"/>
+      <c r="K34" s="112"/>
+      <c r="L34" s="112"/>
+      <c r="M34" s="112"/>
+      <c r="N34" s="112"/>
+      <c r="O34" s="112"/>
+      <c r="P34" s="112"/>
+      <c r="Q34" s="112"/>
+      <c r="R34" s="112"/>
+      <c r="S34" s="112"/>
+      <c r="T34" s="112"/>
+      <c r="U34" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -3768,7 +4027,7 @@
     <mergeCell ref="J31:U31"/>
     <mergeCell ref="J32:U32"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="G4:G34" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>OR(NOT(ISERROR(DATEVALUE(G4))), AND(ISNUMBER(G4), LEFT(CELL("format", G4))="D"))</formula1>
     </dataValidation>
@@ -3777,33 +4036,54 @@
   <pageSetup paperSize="14" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1026" r:id="rId4" name="Button 2">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!INPUT_PENGELUARAN">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>1</xdr:col>
-                    <xdr:colOff>107950</xdr:colOff>
-                    <xdr:row>8</xdr:row>
-                    <xdr:rowOff>69850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>1009650</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>101600</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId4" name="CommandButton1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>69850</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>146050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1149350</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId4" name="CommandButton1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId6" name="Button 2">
+          <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!INPUT_PENGELUARAN">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>107950</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>69850</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1009650</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>101600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+    </mc:AlternateContent>
+  </controls>
 </worksheet>
 </file>